--- a/database/industries/khodro/khodro/product/quarterly.xlsx
+++ b/database/industries/khodro/khodro/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394315C0-6D9D-4D59-ADF0-67412D378768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B294FB6-2AE3-403D-8823-3FFDFB367B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="58">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -647,12 +647,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -667,7 +667,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,7 +684,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -716,7 +716,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -765,7 +765,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -817,7 +817,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -856,7 +856,7 @@
         <v>15232</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -895,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -934,7 +934,7 @@
         <v>17417</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>8464</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>22544</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>100703</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1231,8 +1231,8 @@
       <c r="J20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>18</v>
+      <c r="K20" s="9">
+        <v>0</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>18</v>
@@ -1244,7 +1244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>40</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>41</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>164372</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1840,7 +1840,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1870,7 +1870,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1922,7 +1922,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>14823</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>17</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>19</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>16070</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>20</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>20</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>20</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>22</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>8539</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>23</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>20651</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>25</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>26</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>100387</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>46</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>28</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>30</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>35</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>37</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>38</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>39</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>40</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>41</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>43</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>161087</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2867,7 +2867,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2882,7 +2882,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2897,7 +2897,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>48</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2949,7 +2949,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>15</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>61834028</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>17</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>19</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>34832341</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>132803541</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>16082954</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>23</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>68589922</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>24</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>25</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>26</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>170563575</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>46</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>28</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>29</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>30</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>32</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>33</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>35</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>37</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>38</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>39</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>40</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>26498</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>41</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>657158</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>43</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>485390017</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3820,7 +3820,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3835,7 +3835,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3850,7 +3850,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>50</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3902,7 +3902,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>15</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>4171492141</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>17</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>19</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>2167538332</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>20</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>22</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>1883470430</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>23</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>3321385018</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>25</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>26</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>1699060386</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>46</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>28</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>29</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>30</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>32</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>33</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>35</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>37</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>38</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>39</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>40</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>2208166667</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>41</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>1086211570</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4736,7 +4736,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4751,7 +4751,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4766,7 +4766,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>56</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4818,7 +4818,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>15</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>-53893573</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>17</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>19</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>-39308218</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>20</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>-128008892</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>22</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>-17671231</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>23</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>-69254750</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>24</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>26</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>-214775131</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>46</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>28</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>29</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>30</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>32</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>33</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>37</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>38</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>39</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>40</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>-44419</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>41</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>-657158</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>43</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>-523613372</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5611,7 +5611,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5626,7 +5626,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5641,7 +5641,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>57</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5693,7 +5693,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>15</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>7940455</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>17</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>19</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>-4475877</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>20</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>4794649</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>22</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>-1588277</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>23</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>-664828</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>24</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>26</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>-44211556</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>46</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>28</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>29</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>30</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>32</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>33</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>37</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>38</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>39</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>40</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>-17921</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>41</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>43</v>
       </c>
